--- a/system_storage/history/programme/BCS-April-2024 S2.xlsx
+++ b/system_storage/history/programme/BCS-April-2024 S2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Day / Time</t>
   </si>
@@ -80,109 +80,175 @@
     <t>18:00</t>
   </si>
   <si>
+    <t>PRG1203-G1-Lecture
+(Lim Woan Ning)
+JC1</t>
+  </si>
+  <si>
+    <t>PRG1203-G5-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>WEB1201-G4-Practical
+(Tan Yue Hern)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET1014-G3-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G6-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>WEB1201-G5-Practical
+(Tan Yue Hern)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G2-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>WEB1201-G6-Practical
+(Tan Yue Hern)
+UC3-4</t>
+  </si>
+  <si>
+    <t>PRG1203-G1-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Lecture
+(Mehran Behjati)
+JC1</t>
+  </si>
+  <si>
+    <t>PRG1203-G2-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G3-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G4-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>NET2201-G1-Lecture
+(Saad Aslam)
+JC1</t>
+  </si>
+  <si>
+    <t>NET2201-G3-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G5-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G6-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
+    <t>WEB1201-G1-Lecture
+(Javid Iqbal)
+JC1</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Practical
+(Danish Mahmood Khan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>WEB1201-G1-Practical
+(Tan Yue Hern)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET2201-G4-Practical
+(Danish Mahmood Khan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET2201-G4-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>WEB1201-G2-Practical
+(Tan Yue Hern)
+UC3-3</t>
   </si>
   <si>
     <t>WEB1201-G3-Practical
 (Tan Yue Hern)
-Cyber Security Intelligence Lab</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Lecture
-(Javid Iqbal)
-Auditorium 2</t>
-  </si>
-  <si>
-    <t>WEB1201-G2-Practical
-(Tan Yue Hern)
-SW-CL1-1</t>
-  </si>
-  <si>
-    <t>WEB1201-G3-Practical
-(Tan Yue Hern)
-Cyber Security Intelligence Lab
-SEG1201-G1-Practical
-(Matthew Yeow Yit Hang)
-SW-CL1-1</t>
-  </si>
-  <si>
-    <t>OSS1014-G3-Practical
-(Brandon Khoo Boo Guan)
-Cyber Security Intelligence Lab</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Practical
-(Tan Yue Hern)
-SW-CL1-1</t>
-  </si>
-  <si>
-    <t>PRG1203-G1-Practical
-(Ling Mee Hong)
-SW-CL1-1</t>
-  </si>
-  <si>
-    <t>SEG1201-G3-Practical
-(Matthew Yeow Yit Hang)
-Cyber Security Intelligence Lab</t>
-  </si>
-  <si>
-    <t>OSS1014-G3-Practical
-(Brandon Khoo Boo Guan)
-Cyber Security Intelligence Lab
-PRG1203-G1-Lecture
-(Lim Woan Ning)
-Auditorium 2</t>
-  </si>
-  <si>
-    <t>SEG1201-G2-Practical
-(Matthew Yeow Yit Hang)
-SW-CL1-1</t>
-  </si>
-  <si>
-    <t>PRG1203-G2-Practical
-(Ling Mee Hong)
-Cyber Security Intelligence Lab</t>
-  </si>
-  <si>
-    <t>OSS1014-G1-Practical
-(Brandon Khoo Boo Guan)
-SW-CL1-1</t>
-  </si>
-  <si>
-    <t>SEG1201-G1-Lecture
-(Nor Hafizah Binti Mohamed Halip)
-Auditorium 2</t>
-  </si>
-  <si>
-    <t>OSS1014-G1-Lecture
-(Yeap Boon Han)
-Auditorium 2</t>
-  </si>
-  <si>
-    <t>SEG1201-G3-Practical
-(Matthew Yeow Yit Hang)
-Cyber Security Intelligence Lab
-OSS1014-G2-Practical
-(Brandon Khoo Boo Guan)
-SW-CL1-1</t>
+UC3-3</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>NET1014-G5-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G6-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G2-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G4-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G4-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.28%</t>
+    <t>99.93%</t>
   </si>
 </sst>
 </file>
@@ -326,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -426,87 +492,177 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="F2" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="F3" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="62.4" customHeight="true">
+      <c r="F4" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="A5" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="A3" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s" s="3">
+    <row r="6" ht="62.4" customHeight="true">
+      <c r="B6" t="s" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="62.4" customHeight="true">
+      <c r="B7" t="s" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="62.4" customHeight="true">
+      <c r="A8" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="F3" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="166.4" customHeight="true">
-      <c r="A4" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s" s="5">
+      <c r="N8" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="F4" t="s" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" ht="166.4" customHeight="true">
-      <c r="A5" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="62.4" customHeight="true">
-      <c r="A6" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s" s="6">
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="A9" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s" s="3">
         <v>43</v>
       </c>
+      <c r="F9" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="62.4" customHeight="true">
+      <c r="B10" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="62.4" customHeight="true">
+      <c r="G11" t="s" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="62.4" customHeight="true">
+      <c r="A12" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="62.4" customHeight="true">
+      <c r="Q13" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="N5:Q5"/>
+  <mergeCells count="34">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-April-2024 S2.xlsx
+++ b/system_storage/history/programme/BCS-April-2024 S2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Day / Time</t>
   </si>
@@ -78,6 +78,16 @@
   </si>
   <si>
     <t>18:00</t>
+  </si>
+  <si>
+    <t>NET1014-G5-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>WEB1201-G3-Practical
+(Tan Yue Hern)
+UE2-17</t>
   </si>
   <si>
     <t>PRG1203-G1-Lecture
@@ -85,14 +95,55 @@
 JC1</t>
   </si>
   <si>
-    <t>PRG1203-G5-Practical
-(Ling Mee Hong)
-UE2-17</t>
+    <t>NET1014-G6-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
   </si>
   <si>
     <t>WEB1201-G4-Practical
 (Tan Yue Hern)
-UC3-3</t>
+UE2-17</t>
+  </si>
+  <si>
+    <t>WEB1201-G5-Practical
+(Tan Yue Hern)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G2-Practical
+(Lim Han Shen)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PRG1203-G3-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Practical
+(Danish Mahmood Khan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>WEB1201-G1-Lecture
+(Javid Iqbal)
+JC1</t>
+  </si>
+  <si>
+    <t>PRG1203-G4-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>NET2201-G4-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
   </si>
   <si>
     <t>NET1014-G1-Practical
@@ -100,19 +151,19 @@
 UE2-16</t>
   </si>
   <si>
-    <t>NET1014-G3-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>PRG1203-G6-Practical
+    <t>NET2201-G5-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G6-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G1-Practical
 (Ling Mee Hong)
 UE2-17</t>
-  </si>
-  <si>
-    <t>WEB1201-G5-Practical
-(Tan Yue Hern)
-UC3-3</t>
   </si>
   <si>
     <t>NET1014-G2-Practical
@@ -120,17 +171,12 @@
 UE2-16</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>WEB1201-G6-Practical
-(Tan Yue Hern)
-UC3-4</t>
-  </si>
-  <si>
-    <t>PRG1203-G1-Practical
+    <t>PRG1203-G2-Practical
 (Ling Mee Hong)
 UE2-17</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
   <si>
     <t>NET1014-G1-Lecture
@@ -138,22 +184,42 @@
 JC1</t>
   </si>
   <si>
-    <t>PRG1203-G2-Practical
+    <t>WEB1201-G6-Practical
+(Tan Yue Hern)
+UW2-1</t>
+  </si>
+  <si>
+    <t>PRG1203-G5-Practical
 (Ling Mee Hong)
 UE2-17</t>
   </si>
   <si>
-    <t>PRG1203-G3-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>PRG1203-G4-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
+    <t>NET1014-G3-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>WEB1201-G1-Practical
+(Tan Yue Hern)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G3-Practical
+(Teoh Jiehan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>WEB1201-G2-Practical
+(Tan Yue Hern)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G4-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
   <si>
     <t>NET2201-G1-Lecture
@@ -161,85 +227,9 @@
 JC1</t>
   </si>
   <si>
-    <t>NET2201-G3-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G5-Practical
-(Lim Han Shen)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G6-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Lecture
-(Javid Iqbal)
-JC1</t>
-  </si>
-  <si>
-    <t>NET2201-G1-Practical
-(Danish Mahmood Khan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET2201-G4-Practical
-(Danish Mahmood Khan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET2201-G4-Practical
-(Danish Mahmood Khan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>WEB1201-G2-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>WEB1201-G3-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>NET1014-G5-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G6-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G2-Practical
-(Lim Han Shen)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G4-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G4-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
+    <t>PRG1203-G6-Practical
+(Ling Mee Hong)
+UE2-17</t>
   </si>
   <si>
     <t>Friday</t>
@@ -248,7 +238,7 @@
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.93%</t>
+    <t>99.58%</t>
   </si>
 </sst>
 </file>
@@ -392,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -492,177 +482,165 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="B3" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="62.4" customHeight="true">
+      <c r="A4" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="F3" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="62.4" customHeight="true">
-      <c r="F4" t="s" s="5">
-        <v>25</v>
+      <c r="F4" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
-      <c r="A5" t="s" s="1">
-        <v>37</v>
-      </c>
       <c r="B5" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s" s="5">
+    </row>
+    <row r="6" ht="62.4" customHeight="true">
+      <c r="A6" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="Q5" t="s" s="5">
+      <c r="F6" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="62.4" customHeight="true">
+      <c r="B7" t="s" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" ht="62.4" customHeight="true">
-      <c r="B6" t="s" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" ht="62.4" customHeight="true">
-      <c r="B7" t="s" s="3">
-        <v>33</v>
+      <c r="O7" t="s" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="A8" t="s" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s" s="5">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="O8" t="s" s="5">
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="62.4" customHeight="true">
-      <c r="A9" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>43</v>
-      </c>
       <c r="F9" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="K9" t="s" s="5">
+      <c r="J9" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="P9" t="s" s="5">
-        <v>49</v>
+      <c r="R9" t="s" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="62.4" customHeight="true">
-      <c r="B10" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s" s="5">
+      <c r="F10" t="s" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="11" ht="62.4" customHeight="true">
-      <c r="G11" t="s" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" ht="62.4" customHeight="true">
-      <c r="A12" t="s" s="1">
+      <c r="A11" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s" s="6">
         <v>56</v>
       </c>
-      <c r="B12" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="K12" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="Q12" t="s" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" ht="62.4" customHeight="true">
-      <c r="Q13" t="s" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-April-2024 S2.xlsx
+++ b/system_storage/history/programme/BCS-April-2024 S2.xlsx
@@ -85,7 +85,7 @@
 UE2-16</t>
   </si>
   <si>
-    <t>WEB1201-G3-Practical
+    <t>WEB1201-G4-Practical
 (Tan Yue Hern)
 UE2-17</t>
   </si>
@@ -100,11 +100,6 @@
 UE2-16</t>
   </si>
   <si>
-    <t>WEB1201-G4-Practical
-(Tan Yue Hern)
-UE2-17</t>
-  </si>
-  <si>
     <t>WEB1201-G5-Practical
 (Tan Yue Hern)
 UE2-17</t>
@@ -116,6 +111,11 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>WEB1201-G6-Practical
+(Tan Yue Hern)
+UC3-3</t>
   </si>
   <si>
     <t>PRG1203-G3-Practical
@@ -138,6 +138,11 @@
 UE2-17</t>
   </si>
   <si>
+    <t>WEB1201-G3-Practical
+(Tan Yue Hern)
+UE2-17</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -182,11 +187,6 @@
     <t>NET1014-G1-Lecture
 (Mehran Behjati)
 JC1</t>
-  </si>
-  <si>
-    <t>WEB1201-G6-Practical
-(Tan Yue Hern)
-UW2-1</t>
   </si>
   <si>
     <t>PRG1203-G5-Practical
@@ -482,7 +482,7 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="5">
         <v>22</v>
@@ -504,16 +504,13 @@
       <c r="N3" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="R3" t="s" s="5">
-        <v>28</v>
-      </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s" s="3">
         <v>32</v>
@@ -521,71 +518,74 @@
       <c r="N4" t="s" s="5">
         <v>33</v>
       </c>
+      <c r="R4" t="s" s="5">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
       <c r="B5" t="s" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="62.4" customHeight="true">
+      <c r="B6" t="s" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="62.4" customHeight="true">
-      <c r="A6" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s" s="5">
-        <v>41</v>
-      </c>
-    </row>
     <row r="7" ht="62.4" customHeight="true">
+      <c r="A7" t="s" s="1">
+        <v>43</v>
+      </c>
       <c r="B7" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="O7" t="s" s="5">
+      <c r="F7" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s" s="5">
         <v>40</v>
       </c>
+      <c r="R7" t="s" s="5">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
-      <c r="A8" t="s" s="1">
+      <c r="B8" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="A9" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s" s="5">
+      <c r="B9" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="J8" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" ht="62.4" customHeight="true">
       <c r="F9" t="s" s="5">
         <v>45</v>
       </c>
       <c r="J9" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="R9" t="s" s="5">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="O9" t="s" s="5">
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="62.4" customHeight="true">
       <c r="F10" t="s" s="5">
         <v>46</v>
+      </c>
+      <c r="J10" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="R10" t="s" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="62.4" customHeight="true">
@@ -615,30 +615,30 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:U3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J8:M8"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:I11"/>
   </mergeCells>

--- a/system_storage/history/programme/BCS-April-2024 S2.xlsx
+++ b/system_storage/history/programme/BCS-April-2024 S2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Day / Time</t>
   </si>
@@ -80,13 +80,112 @@
     <t>18:00</t>
   </si>
   <si>
+    <t>PRG1203-G8-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Lecture
+(Mehran Behjati)
+JC1</t>
+  </si>
+  <si>
+    <t>WEB1201-G1-Practical
+(Tan Yue Hern)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G3-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET1014-G4-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>WEB1201-G2-Practical
+(Tan Yue Hern)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PRG1203-G1-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Lecture
+(Saad Aslam)
+JC1</t>
+  </si>
+  <si>
+    <t>PRG1203-G2-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>PRG1203-G3-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET2201-G5-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G4-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
     <t>NET1014-G5-Practical
 (Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G4-Practical
-(Tan Yue Hern)
+UE2-17</t>
+  </si>
+  <si>
+    <t>WEB1201-G1-Lecture
+(Javid Iqbal)
+JC1</t>
+  </si>
+  <si>
+    <t>NET1014-G6-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G7-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G8-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>PRG1203-G7-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G6-Practical
+(Teoh Jiehan)
 UE2-17</t>
   </si>
   <si>
@@ -95,150 +194,56 @@
 JC1</t>
   </si>
   <si>
-    <t>NET1014-G6-Practical
+    <t>NET2201-G7-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G6-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>NET2201-G3-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G4-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G5-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Practical
 (Maisarah Binti Mansor)
 UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G5-Practical
-(Tan Yue Hern)
-UE2-17</t>
   </si>
   <si>
     <t>NET2201-G2-Practical
 (Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G2-Practical
+(Maisarah Binti Mansor)
 UE2-16</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>WEB1201-G6-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>PRG1203-G3-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G1-Practical
-(Danish Mahmood Khan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Lecture
-(Javid Iqbal)
-JC1</t>
-  </si>
-  <si>
-    <t>PRG1203-G4-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>WEB1201-G3-Practical
-(Tan Yue Hern)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>NET2201-G4-Practical
-(Danish Mahmood Khan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G1-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET2201-G5-Practical
-(Lim Han Shen)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G6-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>PRG1203-G1-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G2-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>PRG1203-G2-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>NET1014-G1-Lecture
-(Mehran Behjati)
-JC1</t>
-  </si>
-  <si>
-    <t>PRG1203-G5-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G3-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Practical
-(Tan Yue Hern)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G3-Practical
-(Teoh Jiehan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G2-Practical
-(Tan Yue Hern)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G4-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>NET2201-G1-Lecture
-(Saad Aslam)
-JC1</t>
-  </si>
-  <si>
-    <t>PRG1203-G6-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.58%</t>
+    <t>98.94%</t>
   </si>
 </sst>
 </file>
@@ -488,21 +493,21 @@
         <v>22</v>
       </c>
       <c r="F2" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="N2" t="s" s="5">
+      <c r="R2" t="s" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="N3" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="R2" t="s" s="5">
+      <c r="R3" t="s" s="5">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="B3" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s" s="5">
-        <v>26</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
@@ -513,134 +518,139 @@
         <v>29</v>
       </c>
       <c r="F4" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="N4" t="s" s="5">
+      <c r="Q4" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="G5" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="R4" t="s" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="B5" t="s" s="5">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
+      <c r="A6" t="s" s="1">
+        <v>41</v>
+      </c>
       <c r="B6" t="s" s="5">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
-      <c r="A7" t="s" s="1">
+      <c r="G7" t="s" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="62.4" customHeight="true">
+      <c r="A8" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="B9" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="R7" t="s" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" ht="62.4" customHeight="true">
-      <c r="B8" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" ht="62.4" customHeight="true">
-      <c r="A9" t="s" s="1">
+      <c r="F9" t="s" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="62.4" customHeight="true">
+      <c r="A10" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="62.4" customHeight="true">
+      <c r="F11" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="B9" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="O9" t="s" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" ht="62.4" customHeight="true">
-      <c r="F10" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="R10" t="s" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" ht="62.4" customHeight="true">
-      <c r="A11" t="s" s="1">
+      <c r="R11" t="s" s="5">
         <v>54</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s" s="5">
-        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-April-2024 S2.xlsx
+++ b/system_storage/history/programme/BCS-April-2024 S2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Day / Time</t>
   </si>
@@ -78,6 +78,59 @@
   </si>
   <si>
     <t>18:00</t>
+  </si>
+  <si>
+    <t>WEB1201-G3-Practical
+(Tan Yue Hern)
+UC3-4</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Lecture
+(Mehran Behjati)
+JC1</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G2-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G2-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G3-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PRG1203-G5-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>WEB1201-G4-Practical
+(Tan Yue Hern)
+UC3-4</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Lecture
+(Saad Aslam)
+JC1</t>
+  </si>
+  <si>
+    <t>NET2201-G5-Practical
+(Lim Han Shen)
+UE2-17</t>
   </si>
   <si>
     <t>PRG1203-G8-Practical
@@ -85,9 +138,60 @@
 UC3-3</t>
   </si>
   <si>
-    <t>NET1014-G1-Lecture
-(Mehran Behjati)
+    <t>NET2201-G8-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>NET1014-G4-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G5-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>WEB1201-G1-Lecture
+(Javid Iqbal)
 JC1</t>
+  </si>
+  <si>
+    <t>NET1014-G6-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G3-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>NET2201-G3-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G1-Lecture
+(Lim Woan Ning)
+JC1</t>
+  </si>
+  <si>
+    <t>NET2201-G6-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G7-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
   </si>
   <si>
     <t>WEB1201-G1-Practical
@@ -95,46 +199,11 @@
 UC3-3</t>
   </si>
   <si>
-    <t>NET1014-G3-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET1014-G4-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G2-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>PRG1203-G1-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET2201-G1-Lecture
-(Saad Aslam)
-JC1</t>
-  </si>
-  <si>
-    <t>PRG1203-G2-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>PRG1203-G3-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET2201-G5-Practical
-(Lim Han Shen)
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>NET1014-G7-Practical
+(Maisarah Binti Mansor)
 UE2-17</t>
   </si>
   <si>
@@ -143,35 +212,24 @@
 UC3-3</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>NET1014-G5-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Lecture
-(Javid Iqbal)
-JC1</t>
-  </si>
-  <si>
-    <t>NET1014-G6-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G7-Practical
-(Maisarah Binti Mansor)
+    <t>NET2201-G1-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G6-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET2201-G2-Practical
+(Lim Han Shen)
 UE2-17</t>
   </si>
   <si>
     <t>NET1014-G8-Practical
 (Maisarah Binti Mansor)
 UE2-17</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
   </si>
   <si>
     <t>PRG1203-G7-Practical
@@ -179,71 +237,18 @@
 UC3-3</t>
   </si>
   <si>
-    <t>NET2201-G1-Practical
-(Danish Mahmood Khan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G6-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>PRG1203-G1-Lecture
-(Lim Woan Ning)
-JC1</t>
-  </si>
-  <si>
-    <t>NET2201-G7-Practical
-(Danish Mahmood Khan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>PRG1203-G6-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>NET2201-G3-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
     <t>NET2201-G4-Practical
 (Danish Mahmood Khan)
 UE2-17</t>
   </si>
   <si>
-    <t>PRG1203-G5-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET1014-G1-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET2201-G2-Practical
-(Lim Han Shen)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G2-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>98.94%</t>
+    <t>98.9%</t>
   </si>
 </sst>
 </file>
@@ -518,20 +523,20 @@
         <v>29</v>
       </c>
       <c r="F4" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="B5" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="L4" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="G5" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s" s="5">
+      <c r="P5" t="s" s="5">
         <v>33</v>
       </c>
     </row>
@@ -542,7 +547,7 @@
       <c r="B6" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="3">
+      <c r="G6" t="s" s="5">
         <v>37</v>
       </c>
       <c r="L6" t="s" s="5">
@@ -553,41 +558,38 @@
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
-      <c r="G7" t="s" s="5">
+      <c r="J7" t="s" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="A8" t="s" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="G9" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="J8" t="s" s="5">
+      <c r="R9" t="s" s="5">
         <v>46</v>
-      </c>
-      <c r="N8" t="s" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" ht="62.4" customHeight="true">
-      <c r="B9" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s" s="3">
-        <v>45</v>
       </c>
     </row>
     <row r="10" ht="62.4" customHeight="true">
       <c r="A10" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="5">
         <v>50</v>
@@ -595,28 +597,34 @@
       <c r="J10" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="Q10" t="s" s="5">
+      <c r="N10" t="s" s="5">
         <v>53</v>
       </c>
+      <c r="R10" t="s" s="5">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" ht="62.4" customHeight="true">
-      <c r="F11" t="s" s="5">
+      <c r="B11" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s" s="5">
         <v>51</v>
       </c>
       <c r="R11" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:Q2"/>
@@ -625,30 +633,31 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="R9:U9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="G11:J11"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="R11:U11"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/system_storage/history/programme/BCS-April-2024 S2.xlsx
+++ b/system_storage/history/programme/BCS-April-2024 S2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Day / Time</t>
   </si>
@@ -85,6 +85,11 @@
 UC3-4</t>
   </si>
   <si>
+    <t>PRG1203-G1-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
     <t>NET1014-G1-Lecture
 (Mehran Behjati)
 JC1</t>
@@ -172,6 +177,11 @@
   </si>
   <si>
     <t>Wednesday</t>
+  </si>
+  <si>
+    <t>WEB1201-G2-Practical
+(Tan Yue Hern)
+UC3-4</t>
   </si>
   <si>
     <t>NET2201-G3-Practical
@@ -492,140 +502,147 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="5">
         <v>22</v>
       </c>
       <c r="F2" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="B3" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="N2" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s" s="5">
+      <c r="N3" t="s" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="N3" t="s" s="5">
-        <v>25</v>
-      </c>
       <c r="R3" t="s" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s" s="5">
         <v>35</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s" s="5">
-        <v>34</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
       <c r="B5" t="s" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
       <c r="A6" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="s" s="5">
         <v>41</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="Q6" t="s" s="5">
-        <v>40</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="J7" t="s" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="A8" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="B8" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="P8" t="s" s="5">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" ht="62.4" customHeight="true">
+      <c r="B9" t="s" s="5">
+        <v>44</v>
+      </c>
       <c r="G9" t="s" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="62.4" customHeight="true">
       <c r="A10" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="R10" t="s" s="5">
         <v>56</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="R10" t="s" s="5">
-        <v>54</v>
       </c>
     </row>
     <row r="11" ht="62.4" customHeight="true">
       <c r="B11" t="s" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="N3:Q3"/>
@@ -646,6 +663,7 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="P8:S8"/>
